--- a/data/trans_orig/P14A30-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A30-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB576AE-E008-45D6-8E5E-6AE3F7D879F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB03104-CDAC-4141-83BD-D1145CB636EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44AAD5C8-552A-4432-9444-324F47BE97F2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C82B3CC0-1792-4010-84B5-7C1D4030C175}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,25 +84,31 @@
     <t>76,11%</t>
   </si>
   <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
+    <t>89,53%</t>
   </si>
   <si>
     <t>0%</t>
@@ -114,7 +120,7 @@
     <t>15,68%</t>
   </si>
   <si>
-    <t>64,55%</t>
+    <t>65,14%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -147,7 +153,7 @@
     <t>70,66%</t>
   </si>
   <si>
-    <t>39,69%</t>
+    <t>40,28%</t>
   </si>
   <si>
     <t>90,4%</t>
@@ -168,7 +174,7 @@
     <t>9,6%</t>
   </si>
   <si>
-    <t>60,31%</t>
+    <t>59,72%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -195,10 +201,10 @@
     <t>54,26%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>48,33%</t>
@@ -207,19 +213,19 @@
     <t>52,49%</t>
   </si>
   <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>51,67%</t>
@@ -228,10 +234,10 @@
     <t>47,51%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -240,7 +246,7 @@
     <t>80,45%</t>
   </si>
   <si>
-    <t>21,55%</t>
+    <t>36,93%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -249,13 +255,13 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>55,95%</t>
+    <t>55,42%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>78,45%</t>
+    <t>63,07%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -264,61 +270,61 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>44,05%</t>
+    <t>44,58%</t>
   </si>
   <si>
     <t>70,6%</t>
   </si>
   <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -339,18 +345,12 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
     <t>57,35%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>83,2%</t>
-  </si>
-  <si>
     <t>49,02%</t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>88,1%</t>
   </si>
   <si>
-    <t>45,09%</t>
+    <t>58,48%</t>
   </si>
   <si>
     <t>33,46%</t>
@@ -399,16 +399,16 @@
     <t>72,4%</t>
   </si>
   <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>54,91%</t>
+    <t>41,52%</t>
   </si>
   <si>
     <t>66,54%</t>
@@ -417,64 +417,64 @@
     <t>27,6%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213BA5EA-C6A0-4C3F-97ED-2A0E83FF8C23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11844BA3-C071-4A08-8553-5D97535AA8D9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1201,10 +1201,10 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1228,13 +1228,13 @@
         <v>964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1305,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -1335,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>18</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1472,13 +1472,13 @@
         <v>5437</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1487,13 +1487,13 @@
         <v>7562</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1523,13 +1523,13 @@
         <v>3139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1538,13 +1538,13 @@
         <v>3139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1615,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,7 +1749,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1761,10 +1761,10 @@
         <v>1005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1791,10 +1791,10 @@
         <v>1006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -1812,10 +1812,10 @@
         <v>1054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -1830,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -1842,10 +1842,10 @@
         <v>2043</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1916,13 +1916,13 @@
         <v>5083</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -1931,10 +1931,10 @@
         <v>1935</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -1946,13 +1946,13 @@
         <v>7018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1967,13 @@
         <v>4284</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1982,10 +1982,10 @@
         <v>2069</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>16</v>
@@ -1997,13 +1997,13 @@
         <v>6353</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2059,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2071,10 +2071,10 @@
         <v>4236</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2089,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>18</v>
@@ -2101,10 +2101,10 @@
         <v>8560</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -2122,13 +2122,13 @@
         <v>1030</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2152,13 +2152,13 @@
         <v>1030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2226,13 @@
         <v>17602</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -2241,13 +2241,13 @@
         <v>15974</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -2256,13 +2256,13 @@
         <v>33576</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2277,13 @@
         <v>7331</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2292,13 +2292,13 @@
         <v>6198</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2307,13 +2307,13 @@
         <v>13528</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2369,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80E2758-7E95-4AD5-9F3B-3856695C1210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA83368-0180-4D36-B9CA-E6EA8FF616BD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2410,7 +2410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -2586,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2601,7 +2601,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2675,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>18</v>
@@ -2687,10 +2687,10 @@
         <v>1002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2702,10 +2702,10 @@
         <v>4233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2723,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2738,10 +2738,10 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2753,13 +2753,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2815,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2827,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2845,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -2860,7 +2860,7 @@
         <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2881,7 +2881,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -2893,13 +2893,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2911,7 +2911,7 @@
         <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3000,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>18</v>
@@ -3015,7 +3015,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>18</v>
@@ -3033,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3063,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3125,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3153,7 +3153,7 @@
         <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3168,7 +3168,7 @@
         <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3202,7 +3202,7 @@
         <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -3217,7 +3217,7 @@
         <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3289,7 +3289,7 @@
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3301,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3319,7 +3319,7 @@
         <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>110</v>
@@ -3340,7 +3340,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -3355,7 +3355,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3510,7 +3510,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>18</v>
@@ -3525,7 +3525,7 @@
         <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>16</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3614,7 +3614,7 @@
         <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -3650,7 +3650,7 @@
         <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>123</v>
@@ -3665,7 +3665,7 @@
         <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>16</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A30-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A30-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CB03104-CDAC-4141-83BD-D1145CB636EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{680F6F7E-6FA1-4950-98F6-D458DC0ADA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C82B3CC0-1792-4010-84B5-7C1D4030C175}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2938BF2C-0C3B-467E-97E3-95AE17AADD13}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,7 +84,7 @@
     <t>76,11%</t>
   </si>
   <si>
-    <t>10,47%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -99,18 +99,12 @@
     <t>84,32%</t>
   </si>
   <si>
-    <t>34,86%</t>
+    <t>34,14%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -120,7 +114,7 @@
     <t>15,68%</t>
   </si>
   <si>
-    <t>65,14%</t>
+    <t>65,86%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -144,37 +138,37 @@
     <t>63,39%</t>
   </si>
   <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>36,61%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -201,10 +195,10 @@
     <t>54,26%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>48,33%</t>
@@ -213,19 +207,19 @@
     <t>52,49%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
   </si>
   <si>
     <t>45,74%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
   </si>
   <si>
     <t>51,67%</t>
@@ -234,10 +228,10 @@
     <t>47,51%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -255,7 +249,7 @@
     <t>89,26%</t>
   </si>
   <si>
-    <t>55,42%</t>
+    <t>55,77%</t>
   </si>
   <si>
     <t>19,55%</t>
@@ -270,67 +264,67 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>44,58%</t>
+    <t>44,23%</t>
   </si>
   <si>
     <t>70,6%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>72,05%</t>
   </si>
   <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>27,95%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cirrosis en 2015 (Tasa respuesta: 0,52%)</t>
+    <t>Población que recibe medicación o terapia por cirrosis en 2016 (Tasa respuesta: 0,52%)</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -345,12 +339,18 @@
     <t>75,86%</t>
   </si>
   <si>
+    <t>16,74%</t>
+  </si>
+  <si>
     <t>57,35%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
+    <t>83,26%</t>
+  </si>
+  <si>
     <t>49,02%</t>
   </si>
   <si>
@@ -399,10 +399,10 @@
     <t>72,4%</t>
   </si>
   <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>11,9%</t>
@@ -417,64 +417,64 @@
     <t>27,6%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
   </si>
   <si>
     <t>64,07%</t>
   </si>
   <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
   </si>
   <si>
     <t>56,86%</t>
   </si>
   <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>35,93%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
   </si>
   <si>
     <t>43,14%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11844BA3-C071-4A08-8553-5D97535AA8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7517A72A-E945-4FE7-9866-C44DAFD601E9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1201,25 +1201,25 @@
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1228,13 +1228,13 @@
         <v>964</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,7 +1290,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1305,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -1335,7 +1335,7 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>18</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1445,7 +1445,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1472,13 +1472,13 @@
         <v>5437</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1487,13 +1487,13 @@
         <v>7562</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1523,13 +1523,13 @@
         <v>3139</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1538,13 +1538,13 @@
         <v>3139</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1615,7 +1615,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1689,13 +1689,13 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,7 +1749,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1761,28 +1761,28 @@
         <v>1005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -1791,10 +1791,10 @@
         <v>1006</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -1812,10 +1812,10 @@
         <v>1054</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -1830,7 +1830,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -1842,10 +1842,10 @@
         <v>2043</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1916,13 +1916,13 @@
         <v>5083</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -1931,10 +1931,10 @@
         <v>1935</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -1946,13 +1946,13 @@
         <v>7018</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1967,13 @@
         <v>4284</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1982,10 +1982,10 @@
         <v>2069</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>16</v>
@@ -1997,13 +1997,13 @@
         <v>6353</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2059,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2071,10 +2071,10 @@
         <v>4236</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2089,7 +2089,7 @@
         <v>16</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>18</v>
@@ -2101,10 +2101,10 @@
         <v>8560</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>16</v>
@@ -2122,28 +2122,28 @@
         <v>1030</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2152,13 +2152,13 @@
         <v>1030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2226,13 @@
         <v>17602</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -2241,13 +2241,13 @@
         <v>15974</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -2256,13 +2256,13 @@
         <v>33576</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,13 +2277,13 @@
         <v>7331</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2292,13 +2292,13 @@
         <v>6198</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -2307,13 +2307,13 @@
         <v>13528</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,7 +2369,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA83368-0180-4D36-B9CA-E6EA8FF616BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C449319-4DF6-4D19-A4FA-5783D62B454B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2410,7 +2410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2517,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2547,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -2586,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -2601,7 +2601,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2675,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>18</v>
@@ -2687,10 +2687,10 @@
         <v>1002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2702,10 +2702,10 @@
         <v>4233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>16</v>
@@ -2723,13 +2723,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2738,10 +2738,10 @@
         <v>1347</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2753,13 +2753,13 @@
         <v>1347</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2815,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2827,13 +2827,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2845,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -2860,7 +2860,7 @@
         <v>104</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2881,25 +2881,25 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2911,7 +2911,7 @@
         <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3000,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>18</v>
@@ -3015,7 +3015,7 @@
         <v>16</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>18</v>
@@ -3033,13 +3033,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3063,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,7 +3125,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3153,7 +3153,7 @@
         <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3168,7 +3168,7 @@
         <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3202,7 +3202,7 @@
         <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -3217,7 +3217,7 @@
         <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3289,25 +3289,25 @@
         <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -3319,7 +3319,7 @@
         <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>110</v>
@@ -3340,7 +3340,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -3355,7 +3355,7 @@
         <v>16</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>18</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3474,7 +3474,7 @@
         <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -3492,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3510,7 +3510,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>18</v>
@@ -3525,7 +3525,7 @@
         <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>16</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3614,7 +3614,7 @@
         <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -3650,7 +3650,7 @@
         <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>123</v>
@@ -3665,7 +3665,7 @@
         <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>16</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
